--- a/data/normal_operation/res_bus/vm_pu.xlsx
+++ b/data/normal_operation/res_bus/vm_pu.xlsx
@@ -473,25 +473,25 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.991941150582566</v>
+        <v>0.9912584657283123</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9896574232969563</v>
+        <v>0.9880024228350166</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9938253443702165</v>
+        <v>0.993061304945983</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9932085777173606</v>
+        <v>0.9925854955468155</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9937498525600239</v>
+        <v>0.9933045287310711</v>
       </c>
       <c r="J2" t="n">
-        <v>0.991336773173679</v>
+        <v>0.9905807898328549</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +508,22 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9921162980384851</v>
+        <v>0.9913672836395078</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9903703696526561</v>
+        <v>0.9884071380056964</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9942461842447802</v>
+        <v>0.9934078118248579</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9937546933175969</v>
+        <v>0.9932471591068751</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9940281199740436</v>
+        <v>0.9935348343447803</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9916481487489548</v>
+        <v>0.9906374246710946</v>
       </c>
     </row>
     <row r="4">
@@ -537,25 +537,25 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9914096625249113</v>
+        <v>0.9926972776522951</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9889187653622293</v>
+        <v>0.9927231218815732</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9935802680155893</v>
+        <v>0.995213237390437</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9932494549624514</v>
+        <v>0.9942574198884532</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9934561532623272</v>
+        <v>0.9942863879089585</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9904135861110624</v>
+        <v>0.9919877099299854</v>
       </c>
     </row>
     <row r="5">
@@ -566,28 +566,28 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9924073087875166</v>
+        <v>0.9916566780782348</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9919817226011645</v>
+        <v>0.9887702567050907</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9947901626560441</v>
+        <v>0.9935304605614086</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9937345815718862</v>
+        <v>0.9932608106867995</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9939025831452363</v>
+        <v>0.993762121066651</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9913294010304501</v>
+        <v>0.9913224300196396</v>
       </c>
     </row>
     <row r="6">
@@ -598,28 +598,28 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.991704842503765</v>
+        <v>0.9917262849249452</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9890227441551269</v>
+        <v>0.9896383261923882</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9936685878242051</v>
+        <v>0.9939777723678603</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9933722904026332</v>
+        <v>0.9937005695854743</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9937282701458582</v>
+        <v>0.9937060775166208</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9910975567555177</v>
+        <v>0.9907319436971913</v>
       </c>
     </row>
     <row r="7">
@@ -630,28 +630,28 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D7" t="n">
         <v>0.9999999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9916771357372551</v>
+        <v>0.9920227937392622</v>
       </c>
       <c r="F7" t="n">
-        <v>0.99006794046541</v>
+        <v>0.9904194938525499</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9940424775347181</v>
+        <v>0.9943954090503158</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9934541188276411</v>
+        <v>0.9941687036885198</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9935625875326747</v>
+        <v>0.9940203864359322</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9905670960168386</v>
+        <v>0.9912446059132103</v>
       </c>
     </row>
     <row r="8">
@@ -665,25 +665,25 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9916933745701646</v>
+        <v>0.9921524999729313</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9887626395388892</v>
+        <v>0.9917474871346084</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9935049632627079</v>
+        <v>0.9947151198139309</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9931831390395154</v>
+        <v>0.9937535957683374</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9937507849637593</v>
+        <v>0.9937719662080721</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9913504606694329</v>
+        <v>0.9909264383803263</v>
       </c>
     </row>
     <row r="9">
@@ -697,25 +697,25 @@
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9920298727447051</v>
+        <v>0.9913985753595624</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9897334591982353</v>
+        <v>0.9888112872191089</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9939468068180308</v>
+        <v>0.9935220527136679</v>
       </c>
       <c r="H9" t="n">
-        <v>0.993498204714786</v>
+        <v>0.9931894079579957</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9939582839374868</v>
+        <v>0.9934722940393413</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9916716868471346</v>
+        <v>0.9905205847928948</v>
       </c>
     </row>
     <row r="10">
@@ -732,22 +732,22 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9916806398638195</v>
+        <v>0.9921270914921279</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9895122893957762</v>
+        <v>0.9912594596864217</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9938661594301387</v>
+        <v>0.9946137774145378</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9934872985614517</v>
+        <v>0.9939520741753832</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9936597447945439</v>
+        <v>0.9938586631153015</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9907850602104151</v>
+        <v>0.9909633547181236</v>
       </c>
     </row>
     <row r="11">
@@ -764,22 +764,22 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9924919924507389</v>
+        <v>0.9925192754481483</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9927363331778585</v>
+        <v>0.992017275499273</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9952602435981636</v>
+        <v>0.9948689472213419</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9943905681156157</v>
+        <v>0.9939535590875179</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9941064971411809</v>
+        <v>0.9941009035348268</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9913070450924052</v>
+        <v>0.991712378549673</v>
       </c>
     </row>
     <row r="12">
@@ -790,28 +790,28 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9923003085683109</v>
+        <v>0.9913459084833377</v>
       </c>
       <c r="F12" t="n">
-        <v>0.992298921453703</v>
+        <v>0.9879227849791169</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9949259566854299</v>
+        <v>0.9930745462153268</v>
       </c>
       <c r="H12" t="n">
-        <v>0.993807240911414</v>
+        <v>0.9927108782046252</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9937742131513968</v>
+        <v>0.993396034683823</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9908818738565903</v>
+        <v>0.9907211193342199</v>
       </c>
     </row>
     <row r="13">
@@ -825,25 +825,25 @@
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9914986105142831</v>
+        <v>0.9921972849274793</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9888030926949465</v>
+        <v>0.9910716201001749</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9934460361247233</v>
+        <v>0.994411898718666</v>
       </c>
       <c r="H13" t="n">
-        <v>0.992929377680275</v>
+        <v>0.9935330292769406</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9934987520305232</v>
+        <v>0.9938873939170676</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9908370042889753</v>
+        <v>0.991456772068916</v>
       </c>
     </row>
     <row r="14">
@@ -854,28 +854,28 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9917066659645364</v>
+        <v>0.9919534604985587</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9899028772119329</v>
+        <v>0.9900254605578372</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9939612450385265</v>
+        <v>0.9940863227597526</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9933795796357847</v>
+        <v>0.9936157543530637</v>
       </c>
       <c r="I14" t="n">
-        <v>0.993598219769776</v>
+        <v>0.9938375217090192</v>
       </c>
       <c r="J14" t="n">
-        <v>0.990732972560656</v>
+        <v>0.9912050973122972</v>
       </c>
     </row>
     <row r="15">
@@ -886,28 +886,28 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9919871214102947</v>
+        <v>0.9914777256197397</v>
       </c>
       <c r="F15" t="n">
-        <v>0.989850951966231</v>
+        <v>0.9887547089038118</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9940029576093915</v>
+        <v>0.9935361476499942</v>
       </c>
       <c r="H15" t="n">
-        <v>0.993558200294785</v>
+        <v>0.9932659511861315</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9938933727861404</v>
+        <v>0.9935712930795297</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9914207975374161</v>
+        <v>0.9907351181316008</v>
       </c>
     </row>
     <row r="16">
@@ -921,25 +921,25 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9916266344081844</v>
+        <v>0.9920961061823458</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9892237174544238</v>
+        <v>0.9913503139525984</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9937574861204578</v>
+        <v>0.9946497285069057</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9934503054804008</v>
+        <v>0.9939602066013266</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9936838279986617</v>
+        <v>0.9939104527456482</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9908951301852018</v>
+        <v>0.9911191285236078</v>
       </c>
     </row>
     <row r="17">
@@ -956,22 +956,22 @@
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9914655994208906</v>
+        <v>0.9921055566683803</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9880399309030065</v>
+        <v>0.990802072078231</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9931400315270461</v>
+        <v>0.9943986200070261</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9927941646208754</v>
+        <v>0.9937608860815225</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9935743399559201</v>
+        <v>0.9939029131173708</v>
       </c>
       <c r="J17" t="n">
-        <v>0.9911897425030611</v>
+        <v>0.9912854887962296</v>
       </c>
     </row>
     <row r="18">
@@ -982,28 +982,28 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9914080754148361</v>
+        <v>0.9917621172684611</v>
       </c>
       <c r="F18" t="n">
-        <v>0.988161192415925</v>
+        <v>0.9895677520727404</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9933629113710801</v>
+        <v>0.993785655589189</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9933688638463647</v>
+        <v>0.9931521320917011</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9936187395319989</v>
+        <v>0.9935442316413728</v>
       </c>
       <c r="J18" t="n">
-        <v>0.9907635393062818</v>
+        <v>0.9907646037833682</v>
       </c>
     </row>
     <row r="19">
@@ -1014,28 +1014,28 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9917181654425766</v>
+        <v>0.9919911941945386</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9895765121744079</v>
+        <v>0.99034808056329</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9938605556812449</v>
+        <v>0.9942193340581484</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9934101190825053</v>
+        <v>0.993712369521682</v>
       </c>
       <c r="I19" t="n">
-        <v>0.9937349669085839</v>
+        <v>0.9939277091585409</v>
       </c>
       <c r="J19" t="n">
-        <v>0.9910949444910238</v>
+        <v>0.9914070252927367</v>
       </c>
     </row>
     <row r="20">
@@ -1052,22 +1052,22 @@
         <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9922837677885807</v>
+        <v>0.9920490071355635</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9921670566299362</v>
+        <v>0.9912004404595779</v>
       </c>
       <c r="G20" t="n">
-        <v>0.994967761841857</v>
+        <v>0.994607139463959</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9941091727283647</v>
+        <v>0.9939886398500325</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9939723840546469</v>
+        <v>0.9939012292504333</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9911942696907234</v>
+        <v>0.9910604711277824</v>
       </c>
     </row>
     <row r="21">
@@ -1078,28 +1078,28 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9913672007644144</v>
+        <v>0.9919968290655435</v>
       </c>
       <c r="F21" t="n">
-        <v>0.988974437696842</v>
+        <v>0.9907487192338931</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9934574401620243</v>
+        <v>0.9944339303359008</v>
       </c>
       <c r="H21" t="n">
-        <v>0.9927833026061195</v>
+        <v>0.9939487816780969</v>
       </c>
       <c r="I21" t="n">
-        <v>0.9932359089753359</v>
+        <v>0.99393941422592</v>
       </c>
       <c r="J21" t="n">
-        <v>0.9902040176920044</v>
+        <v>0.9912268884547919</v>
       </c>
     </row>
     <row r="22">
@@ -1110,28 +1110,28 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9918883167370598</v>
+        <v>0.9916254613948987</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9901583478506867</v>
+        <v>0.9893016525857006</v>
       </c>
       <c r="G22" t="n">
-        <v>0.99409759353543</v>
+        <v>0.9936336721322641</v>
       </c>
       <c r="H22" t="n">
-        <v>0.9935050833523614</v>
+        <v>0.9929821150240715</v>
       </c>
       <c r="I22" t="n">
-        <v>0.9937197889798556</v>
+        <v>0.9935121635880676</v>
       </c>
       <c r="J22" t="n">
-        <v>0.9909687316514068</v>
+        <v>0.9908277611583906</v>
       </c>
     </row>
     <row r="23">
@@ -1148,22 +1148,22 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9921170170742447</v>
+        <v>0.9915230244915693</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9908242705532251</v>
+        <v>0.9891753481641056</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9943267860738295</v>
+        <v>0.9937572015162087</v>
       </c>
       <c r="H23" t="n">
-        <v>0.9935069831913536</v>
+        <v>0.9935087574507688</v>
       </c>
       <c r="I23" t="n">
-        <v>0.9938277769983275</v>
+        <v>0.9935997265356323</v>
       </c>
       <c r="J23" t="n">
-        <v>0.9913031156896643</v>
+        <v>0.9905998494136189</v>
       </c>
     </row>
     <row r="24">
@@ -1174,28 +1174,28 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="D24" t="n">
         <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9913074871834818</v>
+        <v>0.9911887828558156</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9878884360536919</v>
+        <v>0.9879714900102348</v>
       </c>
       <c r="G24" t="n">
-        <v>0.993138271952564</v>
+        <v>0.9932096266781842</v>
       </c>
       <c r="H24" t="n">
-        <v>0.9929561425931787</v>
+        <v>0.9930921204151097</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9934180472752794</v>
+        <v>0.9933993213307414</v>
       </c>
       <c r="J24" t="n">
-        <v>0.9905632453389647</v>
+        <v>0.9903797092884298</v>
       </c>
     </row>
     <row r="25">
@@ -1206,28 +1206,28 @@
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D25" t="n">
         <v>0.9999999999999999</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9921287805903698</v>
+        <v>0.9916200033649906</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9915023548156889</v>
+        <v>0.9891944106660546</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9947455549114194</v>
+        <v>0.9937301557393396</v>
       </c>
       <c r="H25" t="n">
-        <v>0.9941020147092817</v>
+        <v>0.9934127104254575</v>
       </c>
       <c r="I25" t="n">
-        <v>0.9939084901330293</v>
+        <v>0.9936907710763722</v>
       </c>
       <c r="J25" t="n">
-        <v>0.9909815075381252</v>
+        <v>0.9909484106491553</v>
       </c>
     </row>
     <row r="26">
@@ -1241,25 +1241,25 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9920021002919868</v>
+        <v>0.9925953757013276</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9911417182222747</v>
+        <v>0.9927005171803345</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9945857432008602</v>
+        <v>0.9952299135068213</v>
       </c>
       <c r="H26" t="n">
-        <v>0.9940014143978092</v>
+        <v>0.9943349369384805</v>
       </c>
       <c r="I26" t="n">
-        <v>0.9938577268534852</v>
+        <v>0.994234241929171</v>
       </c>
       <c r="J26" t="n">
-        <v>0.9909282212149328</v>
+        <v>0.9917583079934635</v>
       </c>
     </row>
     <row r="27">
@@ -1270,28 +1270,28 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9921790579003368</v>
+        <v>0.9915887061842225</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9911413192849028</v>
+        <v>0.9890518468929058</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9945034298482872</v>
+        <v>0.9936679221081685</v>
       </c>
       <c r="H27" t="n">
-        <v>0.9937360490171957</v>
+        <v>0.9933708745251927</v>
       </c>
       <c r="I27" t="n">
-        <v>0.9938502396549328</v>
+        <v>0.9936301431103723</v>
       </c>
       <c r="J27" t="n">
-        <v>0.9911672156388911</v>
+        <v>0.9908227438403994</v>
       </c>
     </row>
     <row r="28">
@@ -1305,25 +1305,25 @@
         <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9918251777718233</v>
+        <v>0.9920404322125081</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9902818055166026</v>
+        <v>0.990216466032852</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9940911228971744</v>
+        <v>0.9940576572975207</v>
       </c>
       <c r="H28" t="n">
-        <v>0.9933579812578617</v>
+        <v>0.9933418881077387</v>
       </c>
       <c r="I28" t="n">
-        <v>0.9936306261759205</v>
+        <v>0.9938211610943725</v>
       </c>
       <c r="J28" t="n">
-        <v>0.9908393197121681</v>
+        <v>0.9914242054922853</v>
       </c>
     </row>
     <row r="29">
@@ -1334,28 +1334,28 @@
         <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
         <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9918730525457923</v>
+        <v>0.9922247498783793</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9899565982569282</v>
+        <v>0.9907588149661928</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9940228338010896</v>
+        <v>0.9944836469426952</v>
       </c>
       <c r="H29" t="n">
-        <v>0.9934833046983023</v>
+        <v>0.994074454810674</v>
       </c>
       <c r="I29" t="n">
-        <v>0.9936877737949701</v>
+        <v>0.9940838199277874</v>
       </c>
       <c r="J29" t="n">
-        <v>0.990874329790869</v>
+        <v>0.9915180419925648</v>
       </c>
     </row>
     <row r="30">
@@ -1369,25 +1369,25 @@
         <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9918524202713804</v>
+        <v>0.9921904985896081</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9896335760776297</v>
+        <v>0.9908770336230575</v>
       </c>
       <c r="G30" t="n">
-        <v>0.993931054226041</v>
+        <v>0.994332538066652</v>
       </c>
       <c r="H30" t="n">
-        <v>0.993562608232552</v>
+        <v>0.9934799069573239</v>
       </c>
       <c r="I30" t="n">
-        <v>0.9938672493436498</v>
+        <v>0.9938843705761943</v>
       </c>
       <c r="J30" t="n">
-        <v>0.9913369241543183</v>
+        <v>0.9915043444845655</v>
       </c>
     </row>
     <row r="31">
@@ -1404,22 +1404,22 @@
         <v>0.9999999999999998</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9914360877683251</v>
+        <v>0.9922964198218642</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9883044984264444</v>
+        <v>0.9918424468790547</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9932556043065964</v>
+        <v>0.9947791480192922</v>
       </c>
       <c r="H31" t="n">
-        <v>0.9928582749250997</v>
+        <v>0.9938492774100276</v>
       </c>
       <c r="I31" t="n">
-        <v>0.9934233531309756</v>
+        <v>0.9939059954740455</v>
       </c>
       <c r="J31" t="n">
-        <v>0.9906756915218097</v>
+        <v>0.9912325435753434</v>
       </c>
     </row>
     <row r="32">
@@ -1430,28 +1430,28 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9925287157937327</v>
+        <v>0.9924611579650724</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9921359306695503</v>
+        <v>0.9925538713489567</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9950404974613124</v>
+        <v>0.9951453863037584</v>
       </c>
       <c r="H32" t="n">
-        <v>0.9943413911786598</v>
+        <v>0.9942237611373872</v>
       </c>
       <c r="I32" t="n">
-        <v>0.9942478857318436</v>
+        <v>0.9940878107764131</v>
       </c>
       <c r="J32" t="n">
-        <v>0.9917836552502914</v>
+        <v>0.9914218775627337</v>
       </c>
     </row>
     <row r="33">
@@ -1462,28 +1462,28 @@
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>0.991167674911654</v>
+        <v>0.9923576905534794</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9875847028581403</v>
+        <v>0.9924571125052669</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9930425452878356</v>
+        <v>0.9950298859321389</v>
       </c>
       <c r="H33" t="n">
-        <v>0.9929782528780565</v>
+        <v>0.9939579466521464</v>
       </c>
       <c r="I33" t="n">
-        <v>0.9934774374998111</v>
+        <v>0.9939256026743502</v>
       </c>
       <c r="J33" t="n">
-        <v>0.9907016051138267</v>
+        <v>0.9911863691109738</v>
       </c>
     </row>
     <row r="34">
@@ -1497,25 +1497,25 @@
         <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9924969300809929</v>
+        <v>0.9921879512941376</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9924122089300886</v>
+        <v>0.9902326677616015</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9950130518368254</v>
+        <v>0.9941138125488853</v>
       </c>
       <c r="H34" t="n">
-        <v>0.9939729797322616</v>
+        <v>0.9934949071779411</v>
       </c>
       <c r="I34" t="n">
-        <v>0.9940471051524444</v>
+        <v>0.9939919529322364</v>
       </c>
       <c r="J34" t="n">
-        <v>0.9915257356116355</v>
+        <v>0.9917826688422524</v>
       </c>
     </row>
     <row r="35">
@@ -1526,28 +1526,28 @@
         <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9913288300899687</v>
+        <v>0.9916583663562102</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9881278387912875</v>
+        <v>0.9892425286381963</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9933256135586397</v>
+        <v>0.9937706785705269</v>
       </c>
       <c r="H35" t="n">
-        <v>0.9932798517312611</v>
+        <v>0.9934831031031792</v>
       </c>
       <c r="I35" t="n">
-        <v>0.9935768376323</v>
+        <v>0.9936957417754968</v>
       </c>
       <c r="J35" t="n">
-        <v>0.9907367889041938</v>
+        <v>0.990910293415757</v>
       </c>
     </row>
     <row r="36">
@@ -1561,25 +1561,25 @@
         <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9922686404496058</v>
+        <v>0.9919992704786791</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9917192630698852</v>
+        <v>0.9903426372505512</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9947524177551527</v>
+        <v>0.9940817759246676</v>
       </c>
       <c r="H36" t="n">
-        <v>0.9939193088755406</v>
+        <v>0.9932667960528396</v>
       </c>
       <c r="I36" t="n">
-        <v>0.9939864351121637</v>
+        <v>0.9937142863955611</v>
       </c>
       <c r="J36" t="n">
-        <v>0.9913956425715016</v>
+        <v>0.9911825363981064</v>
       </c>
     </row>
     <row r="37">
@@ -1590,28 +1590,28 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9923200957383856</v>
+        <v>0.9924244034401514</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9924571382910988</v>
+        <v>0.9923463777607875</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9950674846623757</v>
+        <v>0.9951031796446834</v>
       </c>
       <c r="H37" t="n">
-        <v>0.9940920757979017</v>
+        <v>0.9943340012528635</v>
       </c>
       <c r="I37" t="n">
-        <v>0.9938990117307817</v>
+        <v>0.994085816323805</v>
       </c>
       <c r="J37" t="n">
-        <v>0.9909896686039522</v>
+        <v>0.9913195909317466</v>
       </c>
     </row>
     <row r="38">
@@ -1622,28 +1622,28 @@
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9920105819246668</v>
+        <v>0.9917802025382616</v>
       </c>
       <c r="F38" t="n">
-        <v>0.991159437300168</v>
+        <v>0.9900566162470257</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9945729736941743</v>
+        <v>0.9940810192554929</v>
       </c>
       <c r="H38" t="n">
-        <v>0.9939505147247205</v>
+        <v>0.993593171134394</v>
       </c>
       <c r="I38" t="n">
-        <v>0.9938441342458209</v>
+        <v>0.9937307059573975</v>
       </c>
       <c r="J38" t="n">
-        <v>0.9909502624210095</v>
+        <v>0.9909152684397771</v>
       </c>
     </row>
     <row r="39">
@@ -1654,28 +1654,28 @@
         <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
         <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9914976851892862</v>
+        <v>0.9919087605291963</v>
       </c>
       <c r="F39" t="n">
-        <v>0.988965365325194</v>
+        <v>0.9897854128816912</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9936261092549246</v>
+        <v>0.9940836657089107</v>
       </c>
       <c r="H39" t="n">
-        <v>0.9933070195643611</v>
+        <v>0.9938763315424615</v>
       </c>
       <c r="I39" t="n">
-        <v>0.9935215863624236</v>
+        <v>0.994016950999991</v>
       </c>
       <c r="J39" t="n">
-        <v>0.9905453812168838</v>
+        <v>0.9914929508420175</v>
       </c>
     </row>
     <row r="40">
@@ -1692,22 +1692,22 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9920790482516332</v>
+        <v>0.9925575758181092</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9910002562282815</v>
+        <v>0.9927505561535447</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9944954134175377</v>
+        <v>0.9951761559651587</v>
       </c>
       <c r="H40" t="n">
-        <v>0.9938960355562845</v>
+        <v>0.9941168276079134</v>
       </c>
       <c r="I40" t="n">
-        <v>0.9939523420610828</v>
+        <v>0.9940631616335825</v>
       </c>
       <c r="J40" t="n">
-        <v>0.9913113539903977</v>
+        <v>0.9914675027721028</v>
       </c>
     </row>
     <row r="41">
@@ -1718,28 +1718,28 @@
         <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
         <v>0.9999999999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>0.992199684055093</v>
+        <v>0.9921006210999198</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9910669738018105</v>
+        <v>0.9915959717716564</v>
       </c>
       <c r="G41" t="n">
-        <v>0.99455801258501</v>
+        <v>0.9946482540463775</v>
       </c>
       <c r="H41" t="n">
-        <v>0.9939949061205345</v>
+        <v>0.9936996135722258</v>
       </c>
       <c r="I41" t="n">
-        <v>0.9939926325743563</v>
+        <v>0.9937116578712282</v>
       </c>
       <c r="J41" t="n">
-        <v>0.99133260558894</v>
+        <v>0.990789907023233</v>
       </c>
     </row>
     <row r="42">
@@ -1750,28 +1750,28 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
         <v>0.9999999999999999</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9918650883029271</v>
+        <v>0.9921477361572641</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9906413128433839</v>
+        <v>0.9914660850890002</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9944350084029678</v>
+        <v>0.9947081576371997</v>
       </c>
       <c r="H42" t="n">
-        <v>0.9940538666248059</v>
+        <v>0.994012177703172</v>
       </c>
       <c r="I42" t="n">
-        <v>0.9938155346722152</v>
+        <v>0.9938827165895323</v>
       </c>
       <c r="J42" t="n">
-        <v>0.9907389206907035</v>
+        <v>0.9909949446463481</v>
       </c>
     </row>
     <row r="43">
@@ -1788,22 +1788,22 @@
         <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>0.992170673789082</v>
+        <v>0.9919868623972115</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9908930403854475</v>
+        <v>0.989730981570797</v>
       </c>
       <c r="G43" t="n">
-        <v>0.994453564337776</v>
+        <v>0.9940077663222311</v>
       </c>
       <c r="H43" t="n">
-        <v>0.9938391441770998</v>
+        <v>0.9936813418342217</v>
       </c>
       <c r="I43" t="n">
-        <v>0.9939589514362267</v>
+        <v>0.9940056350154535</v>
       </c>
       <c r="J43" t="n">
-        <v>0.99136729620752</v>
+        <v>0.9916390624456435</v>
       </c>
     </row>
     <row r="44">
@@ -1814,28 +1814,28 @@
         <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9919683146245029</v>
+        <v>0.9915183284186935</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9906780878908633</v>
+        <v>0.9887349391525906</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9943378148011563</v>
+        <v>0.9935354579996776</v>
       </c>
       <c r="H44" t="n">
-        <v>0.9937180291243829</v>
+        <v>0.9932940995944898</v>
       </c>
       <c r="I44" t="n">
-        <v>0.9938037455464337</v>
+        <v>0.9936192564636431</v>
       </c>
       <c r="J44" t="n">
-        <v>0.9910376598520669</v>
+        <v>0.9908466471680427</v>
       </c>
     </row>
     <row r="45">
@@ -1846,28 +1846,28 @@
         <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9921043798187344</v>
+        <v>0.9923554319204968</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9902723494762732</v>
+        <v>0.9921616894836367</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9943172604823072</v>
+        <v>0.9949646717832143</v>
       </c>
       <c r="H45" t="n">
-        <v>0.9941058995637222</v>
+        <v>0.9941031233251724</v>
       </c>
       <c r="I45" t="n">
-        <v>0.9941622557600174</v>
+        <v>0.9940105185552761</v>
       </c>
       <c r="J45" t="n">
-        <v>0.9917252599724991</v>
+        <v>0.9913140721975496</v>
       </c>
     </row>
     <row r="46">
@@ -1878,28 +1878,28 @@
         <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="D46" t="n">
         <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9915750096790011</v>
+        <v>0.9924587800744473</v>
       </c>
       <c r="F46" t="n">
-        <v>0.988822708145064</v>
+        <v>0.9924417076375969</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9936651002416417</v>
+        <v>0.9951295188809399</v>
       </c>
       <c r="H46" t="n">
-        <v>0.9936160570089509</v>
+        <v>0.994315542582514</v>
       </c>
       <c r="I46" t="n">
-        <v>0.9937861316226945</v>
+        <v>0.9941796333843389</v>
       </c>
       <c r="J46" t="n">
-        <v>0.9910319657113148</v>
+        <v>0.9916225812914197</v>
       </c>
     </row>
     <row r="47">
@@ -1910,28 +1910,28 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9920003931661318</v>
+        <v>0.9912295758488902</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9904499508120493</v>
+        <v>0.9879658329654587</v>
       </c>
       <c r="G47" t="n">
-        <v>0.994259763277069</v>
+        <v>0.993042502465537</v>
       </c>
       <c r="H47" t="n">
-        <v>0.9937138417509118</v>
+        <v>0.9925565054985374</v>
       </c>
       <c r="I47" t="n">
-        <v>0.9938674124488788</v>
+        <v>0.9931987548454138</v>
       </c>
       <c r="J47" t="n">
-        <v>0.9912050952349187</v>
+        <v>0.9902764847211941</v>
       </c>
     </row>
     <row r="48">
@@ -1942,28 +1942,28 @@
         <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9919278037490572</v>
+        <v>0.992452996737051</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9906672159750906</v>
+        <v>0.9923457079748903</v>
       </c>
       <c r="G48" t="n">
-        <v>0.9943104983929597</v>
+        <v>0.9951300321237825</v>
       </c>
       <c r="H48" t="n">
-        <v>0.9936381103324067</v>
+        <v>0.9944138412765849</v>
       </c>
       <c r="I48" t="n">
-        <v>0.9937421635619561</v>
+        <v>0.9941589849410392</v>
       </c>
       <c r="J48" t="n">
-        <v>0.9909279658652718</v>
+        <v>0.9914379438814943</v>
       </c>
     </row>
     <row r="49">
@@ -1980,22 +1980,22 @@
         <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9923629412937452</v>
+        <v>0.9924026395477311</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9927009009217919</v>
+        <v>0.9924071000649352</v>
       </c>
       <c r="G49" t="n">
-        <v>0.9952123091825015</v>
+        <v>0.9951023559526322</v>
       </c>
       <c r="H49" t="n">
-        <v>0.9942999629436484</v>
+        <v>0.9942746085628812</v>
       </c>
       <c r="I49" t="n">
-        <v>0.9940127215060288</v>
+        <v>0.9940976072341056</v>
       </c>
       <c r="J49" t="n">
-        <v>0.9911408854908784</v>
+        <v>0.9914206338457714</v>
       </c>
     </row>
     <row r="50">
@@ -2006,28 +2006,28 @@
         <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9920154455945651</v>
+        <v>0.9915024688858378</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9903290146118947</v>
+        <v>0.988761056154836</v>
       </c>
       <c r="G50" t="n">
-        <v>0.9942738526687759</v>
+        <v>0.9935508627561643</v>
       </c>
       <c r="H50" t="n">
-        <v>0.9938723816391416</v>
+        <v>0.9933289640980671</v>
       </c>
       <c r="I50" t="n">
-        <v>0.9939347820646706</v>
+        <v>0.993688086733448</v>
       </c>
       <c r="J50" t="n">
-        <v>0.9912624889455819</v>
+        <v>0.9910369757757085</v>
       </c>
     </row>
     <row r="51">
@@ -2038,28 +2038,28 @@
         <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9920097570355308</v>
+        <v>0.9915340497843487</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9906516343078993</v>
+        <v>0.9884267047082359</v>
       </c>
       <c r="G51" t="n">
-        <v>0.9941949441058564</v>
+        <v>0.993402590534937</v>
       </c>
       <c r="H51" t="n">
-        <v>0.9932931154537153</v>
+        <v>0.9932083264016986</v>
       </c>
       <c r="I51" t="n">
-        <v>0.9936746869519929</v>
+        <v>0.9936719795428639</v>
       </c>
       <c r="J51" t="n">
-        <v>0.9910440028607673</v>
+        <v>0.9910727334279104</v>
       </c>
     </row>
     <row r="52">
@@ -2070,28 +2070,28 @@
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9916770868582402</v>
+        <v>0.9927194997594636</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9897593962352632</v>
+        <v>0.992589647749261</v>
       </c>
       <c r="G52" t="n">
-        <v>0.9938640159967436</v>
+        <v>0.9953232703805694</v>
       </c>
       <c r="H52" t="n">
-        <v>0.9932181672365005</v>
+        <v>0.9947603833653802</v>
       </c>
       <c r="I52" t="n">
-        <v>0.9935705837032509</v>
+        <v>0.9945071054354342</v>
       </c>
       <c r="J52" t="n">
-        <v>0.9907918471067485</v>
+        <v>0.9921600729993805</v>
       </c>
     </row>
     <row r="53">
@@ -2102,28 +2102,28 @@
         <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E53" t="n">
-        <v>0.992053464228426</v>
+        <v>0.9924739590467738</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9900249279931713</v>
+        <v>0.9920612632425753</v>
       </c>
       <c r="G53" t="n">
-        <v>0.9940527497747962</v>
+        <v>0.9948368595712206</v>
       </c>
       <c r="H53" t="n">
-        <v>0.9935249230174356</v>
+        <v>0.9937861989736136</v>
       </c>
       <c r="I53" t="n">
-        <v>0.9939035062314763</v>
+        <v>0.9939770034892181</v>
       </c>
       <c r="J53" t="n">
-        <v>0.9914958274924162</v>
+        <v>0.9915067139386496</v>
       </c>
     </row>
     <row r="54">
@@ -2134,28 +2134,28 @@
         <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D54" t="n">
         <v>0.9999999999999999</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9912345913687577</v>
+        <v>0.9925914873582797</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9878440824330077</v>
+        <v>0.992628654523029</v>
       </c>
       <c r="G54" t="n">
-        <v>0.9930988293946164</v>
+        <v>0.9951247765793846</v>
       </c>
       <c r="H54" t="n">
-        <v>0.9928726388830595</v>
+        <v>0.9940708345069825</v>
       </c>
       <c r="I54" t="n">
-        <v>0.9934190179304797</v>
+        <v>0.9940981456339973</v>
       </c>
       <c r="J54" t="n">
-        <v>0.990641020313509</v>
+        <v>0.9916004528798669</v>
       </c>
     </row>
     <row r="55">
@@ -2169,25 +2169,25 @@
         <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9924359094023048</v>
+        <v>0.9919429760325145</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9919261486157939</v>
+        <v>0.9900461308473942</v>
       </c>
       <c r="G55" t="n">
-        <v>0.9948981666051125</v>
+        <v>0.9940819752155173</v>
       </c>
       <c r="H55" t="n">
-        <v>0.9941165047653647</v>
+        <v>0.9935872542885809</v>
       </c>
       <c r="I55" t="n">
-        <v>0.9941405102700921</v>
+        <v>0.9938232217673801</v>
       </c>
       <c r="J55" t="n">
-        <v>0.991657476241379</v>
+        <v>0.9911837391810047</v>
       </c>
     </row>
     <row r="56">
@@ -2201,25 +2201,25 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9910554686647515</v>
+        <v>0.9925371698515171</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9875023209959278</v>
+        <v>0.9918005930999141</v>
       </c>
       <c r="G56" t="n">
-        <v>0.9928681217344727</v>
+        <v>0.9949042572597083</v>
       </c>
       <c r="H56" t="n">
-        <v>0.9924902756853727</v>
+        <v>0.9942668557118653</v>
       </c>
       <c r="I56" t="n">
-        <v>0.9931271311057861</v>
+        <v>0.9943173158926532</v>
       </c>
       <c r="J56" t="n">
-        <v>0.9901205233871437</v>
+        <v>0.9920431193379601</v>
       </c>
     </row>
     <row r="57">
@@ -2236,22 +2236,22 @@
         <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9920674250402552</v>
+        <v>0.9917970767439458</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9903695665587053</v>
+        <v>0.9903157426266901</v>
       </c>
       <c r="G57" t="n">
-        <v>0.9942070341160755</v>
+        <v>0.9941473568635717</v>
       </c>
       <c r="H57" t="n">
-        <v>0.9936265447380542</v>
+        <v>0.9934960913297775</v>
       </c>
       <c r="I57" t="n">
-        <v>0.9938691854678123</v>
+        <v>0.9936587816127401</v>
       </c>
       <c r="J57" t="n">
-        <v>0.9912992678047677</v>
+        <v>0.9907970933112644</v>
       </c>
     </row>
     <row r="58">
@@ -2262,28 +2262,28 @@
         <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="D58" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>0.991563824928507</v>
+        <v>0.991493296434147</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9885970851795297</v>
+        <v>0.9884688943976646</v>
       </c>
       <c r="G58" t="n">
-        <v>0.9933357922184614</v>
+        <v>0.9933204394054316</v>
       </c>
       <c r="H58" t="n">
-        <v>0.9928085217945019</v>
+        <v>0.9929084186106747</v>
       </c>
       <c r="I58" t="n">
-        <v>0.9935308091762305</v>
+        <v>0.9934769207503897</v>
       </c>
       <c r="J58" t="n">
-        <v>0.9910531183090374</v>
+        <v>0.990802008598732</v>
       </c>
     </row>
     <row r="59">
@@ -2297,25 +2297,25 @@
         <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>0.991478125176932</v>
+        <v>0.99222528448226</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9888701267831866</v>
+        <v>0.9908852914649597</v>
       </c>
       <c r="G59" t="n">
-        <v>0.9934569375167517</v>
+        <v>0.994466052473291</v>
       </c>
       <c r="H59" t="n">
-        <v>0.9928923477871276</v>
+        <v>0.9938815083041379</v>
       </c>
       <c r="I59" t="n">
-        <v>0.993371827825403</v>
+        <v>0.9940647646183358</v>
       </c>
       <c r="J59" t="n">
-        <v>0.9904929744464791</v>
+        <v>0.9916514613939773</v>
       </c>
     </row>
     <row r="60">
@@ -2329,25 +2329,25 @@
         <v>0.9999999999999998</v>
       </c>
       <c r="D60" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9918748474764741</v>
+        <v>0.9911680247537534</v>
       </c>
       <c r="F60" t="n">
-        <v>0.990301808964929</v>
+        <v>0.9875489984503608</v>
       </c>
       <c r="G60" t="n">
-        <v>0.9940660931076004</v>
+        <v>0.9929883525207004</v>
       </c>
       <c r="H60" t="n">
-        <v>0.9932631537942443</v>
+        <v>0.9928346820156038</v>
       </c>
       <c r="I60" t="n">
-        <v>0.9936192337717209</v>
+        <v>0.9934148578829209</v>
       </c>
       <c r="J60" t="n">
-        <v>0.9908953638867708</v>
+        <v>0.9906495396676428</v>
       </c>
     </row>
     <row r="61">
@@ -2361,25 +2361,25 @@
         <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9924071353811281</v>
+        <v>0.9923317214641982</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9917705518024414</v>
+        <v>0.9915092115231665</v>
       </c>
       <c r="G61" t="n">
-        <v>0.9947967884946846</v>
+        <v>0.9945850174301145</v>
       </c>
       <c r="H61" t="n">
-        <v>0.9939654413398605</v>
+        <v>0.9936033896830166</v>
       </c>
       <c r="I61" t="n">
-        <v>0.9940696979147465</v>
+        <v>0.9939523314100128</v>
       </c>
       <c r="J61" t="n">
-        <v>0.9915981170438268</v>
+        <v>0.991585212502081</v>
       </c>
     </row>
     <row r="62">
@@ -2390,28 +2390,28 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="D62" t="n">
         <v>0.9999999999999998</v>
       </c>
-      <c r="D62" t="n">
-        <v>0.9999999999999999</v>
-      </c>
       <c r="E62" t="n">
-        <v>0.9925574295545458</v>
+        <v>0.9913164380322042</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9930878089408426</v>
+        <v>0.9877454182668273</v>
       </c>
       <c r="G62" t="n">
-        <v>0.9954365066824321</v>
+        <v>0.9930553184079199</v>
       </c>
       <c r="H62" t="n">
-        <v>0.9945875236541392</v>
+        <v>0.9928686999059789</v>
       </c>
       <c r="I62" t="n">
-        <v>0.9941841303065515</v>
+        <v>0.9935439084554619</v>
       </c>
       <c r="J62" t="n">
-        <v>0.9913788519150429</v>
+        <v>0.9910232561444537</v>
       </c>
     </row>
     <row r="63">
@@ -2425,25 +2425,25 @@
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9920760797284719</v>
+        <v>0.9917057413423079</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9910063699215463</v>
+        <v>0.989090353243209</v>
       </c>
       <c r="G63" t="n">
-        <v>0.9945701466317454</v>
+        <v>0.9936201697052203</v>
       </c>
       <c r="H63" t="n">
-        <v>0.9940956536927348</v>
+        <v>0.9931634729706181</v>
       </c>
       <c r="I63" t="n">
-        <v>0.9939512469021686</v>
+        <v>0.9936648681462938</v>
       </c>
       <c r="J63" t="n">
-        <v>0.9911175266732937</v>
+        <v>0.9911006324152717</v>
       </c>
     </row>
     <row r="64">
@@ -2454,28 +2454,28 @@
         <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="D64" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9915262290024494</v>
+        <v>0.9922112618070486</v>
       </c>
       <c r="F64" t="n">
-        <v>0.989133402576145</v>
+        <v>0.9917818107686396</v>
       </c>
       <c r="G64" t="n">
-        <v>0.9935797285697523</v>
+        <v>0.9947978592222115</v>
       </c>
       <c r="H64" t="n">
-        <v>0.9929979367814291</v>
+        <v>0.9939764112155893</v>
       </c>
       <c r="I64" t="n">
-        <v>0.9934250067659877</v>
+        <v>0.9938408958614515</v>
       </c>
       <c r="J64" t="n">
-        <v>0.9905540909871942</v>
+        <v>0.9909144850063997</v>
       </c>
     </row>
     <row r="65">
@@ -2492,22 +2492,22 @@
         <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9917845833308674</v>
+        <v>0.9915668145613219</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9900623926687128</v>
+        <v>0.9885788729797451</v>
       </c>
       <c r="G65" t="n">
-        <v>0.9939922478608212</v>
+        <v>0.9933540032926965</v>
       </c>
       <c r="H65" t="n">
-        <v>0.9932781776469893</v>
+        <v>0.9928634236198065</v>
       </c>
       <c r="I65" t="n">
-        <v>0.9935652396703971</v>
+        <v>0.9934568997319264</v>
       </c>
       <c r="J65" t="n">
-        <v>0.9907118499603424</v>
+        <v>0.9907691116753937</v>
       </c>
     </row>
     <row r="66">
@@ -2521,25 +2521,25 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="D66" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9922771851522058</v>
+        <v>0.9923813484291262</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9918172492652485</v>
+        <v>0.9925888781624914</v>
       </c>
       <c r="G66" t="n">
-        <v>0.9949105340916669</v>
+        <v>0.9950614728882508</v>
       </c>
       <c r="H66" t="n">
-        <v>0.9942847030908801</v>
+        <v>0.9939221660559637</v>
       </c>
       <c r="I66" t="n">
-        <v>0.994040961462922</v>
+        <v>0.9938593987531497</v>
       </c>
       <c r="J66" t="n">
-        <v>0.9912209950484738</v>
+        <v>0.9910424095947248</v>
       </c>
     </row>
     <row r="67">
@@ -2550,28 +2550,28 @@
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9914906794214399</v>
+        <v>0.9915364214697477</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9885995646631334</v>
+        <v>0.9889004917308727</v>
       </c>
       <c r="G67" t="n">
-        <v>0.9935307113325625</v>
+        <v>0.9936512908177222</v>
       </c>
       <c r="H67" t="n">
-        <v>0.9934243284285385</v>
+        <v>0.9934609661450819</v>
       </c>
       <c r="I67" t="n">
-        <v>0.9936496159144537</v>
+        <v>0.9936577993367329</v>
       </c>
       <c r="J67" t="n">
-        <v>0.9908176152629937</v>
+        <v>0.9908055855460441</v>
       </c>
     </row>
     <row r="68">
@@ -2585,25 +2585,25 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9927081010352669</v>
+        <v>0.9913209548024555</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9929396542066982</v>
+        <v>0.9877294929060324</v>
       </c>
       <c r="G68" t="n">
-        <v>0.9952880341799304</v>
+        <v>0.9930888225258936</v>
       </c>
       <c r="H68" t="n">
-        <v>0.9942496266335629</v>
+        <v>0.9929615014395734</v>
       </c>
       <c r="I68" t="n">
-        <v>0.9941374569819373</v>
+        <v>0.9935177528507549</v>
       </c>
       <c r="J68" t="n">
-        <v>0.9915502621737092</v>
+        <v>0.9908545080409139</v>
       </c>
     </row>
     <row r="69">
@@ -2617,25 +2617,25 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E69" t="n">
-        <v>0.9919684724174469</v>
+        <v>0.9915014128991482</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9905561250093949</v>
+        <v>0.9885190492741425</v>
       </c>
       <c r="G69" t="n">
-        <v>0.9942555978666934</v>
+        <v>0.9934816600781003</v>
       </c>
       <c r="H69" t="n">
-        <v>0.9935995923499084</v>
+        <v>0.9933573890376738</v>
       </c>
       <c r="I69" t="n">
-        <v>0.993800587598799</v>
+        <v>0.9936900306756197</v>
       </c>
       <c r="J69" t="n">
-        <v>0.9911245565490077</v>
+        <v>0.991012915646308</v>
       </c>
     </row>
     <row r="70">
@@ -2652,22 +2652,22 @@
         <v>1</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9923967133040414</v>
+        <v>0.9913767641858866</v>
       </c>
       <c r="F70" t="n">
-        <v>0.992124060307368</v>
+        <v>0.9879525526450976</v>
       </c>
       <c r="G70" t="n">
-        <v>0.994987866270713</v>
+        <v>0.9932636705564706</v>
       </c>
       <c r="H70" t="n">
-        <v>0.9942202329738837</v>
+        <v>0.9932657699859064</v>
       </c>
       <c r="I70" t="n">
-        <v>0.9941025710750075</v>
+        <v>0.9936261114778583</v>
       </c>
       <c r="J70" t="n">
-        <v>0.9914692503777586</v>
+        <v>0.9908903534441241</v>
       </c>
     </row>
     <row r="71">
@@ -2678,28 +2678,28 @@
         <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9916304606508609</v>
+        <v>0.992607226471771</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9895811187759425</v>
+        <v>0.992639284109898</v>
       </c>
       <c r="G71" t="n">
-        <v>0.9938859029248669</v>
+        <v>0.9952861162674377</v>
       </c>
       <c r="H71" t="n">
-        <v>0.9934641247284242</v>
+        <v>0.9945793636173277</v>
       </c>
       <c r="I71" t="n">
-        <v>0.9935521435012519</v>
+        <v>0.9942857843215623</v>
       </c>
       <c r="J71" t="n">
-        <v>0.9904893890445611</v>
+        <v>0.9916826335987884</v>
       </c>
     </row>
   </sheetData>
